--- a/data/echoMRI/kotz06052025.xlsx
+++ b/data/echoMRI/kotz06052025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10810"/>
   <workbookPr backupFile="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carosandovalcab/Documents/GitHub/data/data/echoMRI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carosandovalcaballero/Documents/GitHub/data/data/echoMRI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F053246-18B7-A34D-B045-A4C1F33B010A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DE0507-FF1C-AC41-8D7F-F46661377453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="500" windowWidth="11360" windowHeight="9220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExtractedScans" sheetId="1" r:id="rId1"/>
@@ -537,9 +537,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <cols>
+    <col min="7" max="7" width="27.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
